--- a/files/aea1e087-e28f-44e2-846e-556b27202419.xlsx
+++ b/files/aea1e087-e28f-44e2-846e-556b27202419.xlsx
@@ -212,6 +212,10 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -328,7 +332,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -390,6 +394,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -401,7 +406,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
